--- a/EX-version-4.1/Exercise_Reports/Crunches_error_report.xlsx
+++ b/EX-version-4.1/Exercise_Reports/Crunches_error_report.xlsx
@@ -19,13 +19,13 @@
     <t>Your left shoulder is bent too much</t>
   </si>
   <si>
-    <t>2, 0, 1, 4, 3</t>
+    <t>3, 2, 4, 1, 0</t>
   </si>
   <si>
     <t>Your left shoulder is too straight</t>
   </si>
   <si>
-    <t>4, 2, 0, 3</t>
+    <t>3, 4, 2, 0</t>
   </si>
   <si>
     <t>Your right shoulder is bent too much</t>
@@ -37,19 +37,19 @@
     <t>Your left elbow is getting too wide</t>
   </si>
   <si>
-    <t>0, 4</t>
+    <t>4, 0</t>
   </si>
   <si>
     <t>Your left elbow is bending inwards too much</t>
   </si>
   <si>
-    <t>1, 2, 4, 3</t>
+    <t>3, 4, 2, 1</t>
   </si>
   <si>
     <t>Your right elbow is getting too wide</t>
   </si>
   <si>
-    <t>4, 0, 3</t>
+    <t>3, 4, 0</t>
   </si>
   <si>
     <t>Your right elbow is bending inwards too much</t>
@@ -70,7 +70,7 @@
     <t>Your knees are getting too wide</t>
   </si>
   <si>
-    <t>2, 4</t>
+    <t>4, 2</t>
   </si>
 </sst>
 </file>
